--- a/Distributors.xlsx
+++ b/Distributors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.vorobjev\PycharmProjects\pharma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD34274-C1AB-4875-AC8B-8D0D5E6973F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EAAEE5-650B-4EA5-862A-B5D5DD6905D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FK Pulse</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Гранд Капитал</t>
+  </si>
+  <si>
+    <t>Rus</t>
+  </si>
+  <si>
+    <t>Eng</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -387,34 +393,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
